--- a/municipal/ENG/Hotels/Number of Rooms in Hotels and Hotel-type enterprises/Samegrelo-Zemo Svaneti/Tsalenjikha Municipality.xlsx
+++ b/municipal/ENG/Hotels/Number of Rooms in Hotels and Hotel-type enterprises/Samegrelo-Zemo Svaneti/Tsalenjikha Municipality.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
   <si>
     <t>(Unit)</t>
   </si>
@@ -42,6 +42,9 @@
     <t>Number of Rooms in Hotels and Hotel-type enterprises in Tsalenjikha Municipality</t>
   </si>
   <si>
+    <t>…</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -60,7 +63,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> Data is confidential or unavailable.</t>
+      <t xml:space="preserve"> „ ...“ Data is confidential or unavailable.</t>
     </r>
   </si>
 </sst>
@@ -176,7 +179,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -189,16 +192,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -220,6 +214,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,7 +504,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,42 +513,42 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:13" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
     </row>
-    <row r="3" spans="1:13" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
+    <row r="3" spans="1:13" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
       <c r="B3" s="2">
         <v>2010</v>
       </c>
@@ -586,8 +586,8 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:13" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="4">
@@ -599,8 +599,8 @@
       <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="4">
-        <v>0</v>
+      <c r="E4" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="F4" s="4">
         <v>24</v>
@@ -627,21 +627,21 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
+    <row r="5" spans="1:13" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="F5" s="3">
         <v>2</v>
@@ -668,21 +668,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:13" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="F6" s="3">
         <v>4</v>
@@ -709,11 +709,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="6">
+    <row r="7" spans="1:13" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5">
         <v>2</v>
       </c>
       <c r="C7" s="3">
@@ -722,8 +722,8 @@
       <c r="D7" s="3">
         <v>1</v>
       </c>
-      <c r="E7" s="3">
-        <v>0</v>
+      <c r="E7" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="F7" s="3">
         <v>16</v>
@@ -750,21 +750,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:13" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="5">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="F8" s="3">
         <v>2</v>
@@ -791,22 +791,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="9" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
+    <row r="9" spans="1:13" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/municipal/ENG/Hotels/Number of Rooms in Hotels and Hotel-type enterprises/Samegrelo-Zemo Svaneti/Tsalenjikha Municipality.xlsx
+++ b/municipal/ENG/Hotels/Number of Rooms in Hotels and Hotel-type enterprises/Samegrelo-Zemo Svaneti/Tsalenjikha Municipality.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612FF824-B652-4DA5-847E-6ED44B10D5AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="16995" windowHeight="13485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tsalenjikha" sheetId="1" r:id="rId1"/>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="###0"/>
     <numFmt numFmtId="165" formatCode="#\ ##0"/>
@@ -179,19 +180,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -204,18 +205,27 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -223,7 +233,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -500,12 +510,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:B9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -513,24 +521,24 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:15" s="6" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
     </row>
-    <row r="2" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -547,7 +555,7 @@
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
     </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="2">
         <v>2010</v>
@@ -585,8 +593,14 @@
       <c r="M3" s="2">
         <v>2021</v>
       </c>
+      <c r="N3" s="2">
+        <v>2022</v>
+      </c>
+      <c r="O3" s="2">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
@@ -626,8 +640,14 @@
       <c r="M4" s="4">
         <v>47</v>
       </c>
+      <c r="N4" s="4">
+        <v>38</v>
+      </c>
+      <c r="O4" s="4">
+        <v>43</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
@@ -667,8 +687,14 @@
       <c r="M5" s="3">
         <v>3</v>
       </c>
+      <c r="N5" s="3">
+        <v>2</v>
+      </c>
+      <c r="O5" s="3">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>3</v>
       </c>
@@ -708,8 +734,14 @@
       <c r="M6" s="3">
         <v>11</v>
       </c>
+      <c r="N6" s="3">
+        <v>10</v>
+      </c>
+      <c r="O6" s="3">
+        <v>13</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>4</v>
       </c>
@@ -749,53 +781,65 @@
       <c r="M7" s="3">
         <v>18</v>
       </c>
+      <c r="N7" s="3">
+        <v>11</v>
+      </c>
+      <c r="O7" s="3">
+        <v>13</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:15" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2</v>
-      </c>
-      <c r="G8" s="3">
-        <v>2</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="B8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="15">
+        <v>2</v>
+      </c>
+      <c r="G8" s="15">
+        <v>2</v>
+      </c>
+      <c r="H8" s="15">
         <v>5</v>
       </c>
-      <c r="I8" s="3">
-        <v>4</v>
-      </c>
-      <c r="J8" s="3">
-        <v>2</v>
-      </c>
-      <c r="K8" s="3">
-        <v>4</v>
-      </c>
-      <c r="L8" s="3">
-        <v>2</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="I8" s="15">
+        <v>4</v>
+      </c>
+      <c r="J8" s="15">
+        <v>2</v>
+      </c>
+      <c r="K8" s="15">
+        <v>4</v>
+      </c>
+      <c r="L8" s="15">
+        <v>2</v>
+      </c>
+      <c r="M8" s="15">
         <v>15</v>
       </c>
+      <c r="N8" s="15">
+        <v>15</v>
+      </c>
+      <c r="O8" s="15">
+        <v>13</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:15" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="15"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -809,8 +853,7 @@
       <c r="M9" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:M1"/>
+  <mergeCells count="1">
     <mergeCell ref="A9:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
